--- a/Hopscotch/跳房子排期.xlsx
+++ b/Hopscotch/跳房子排期.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\dev\BRJ\Hopscotch\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>框架搭建、用户数据初始化、配置表设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,6 +87,10 @@
   </si>
   <si>
     <t>暂停界面、失败界面、游戏界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂定时间(可能更改)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -180,11 +180,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,7 +469,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -481,11 +481,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -497,7 +497,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
@@ -510,7 +510,7 @@
     </row>
     <row r="3" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3">
         <v>5</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -544,7 +544,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -566,7 +566,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -577,7 +577,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -599,18 +599,18 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>7.1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -619,15 +619,15 @@
         <v>7.12</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Hopscotch/跳房子排期.xlsx
+++ b/Hopscotch/跳房子排期.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>跳房子游戏排期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,19 +78,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>待定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.13出裸包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂停界面、失败界面、游戏界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>暂定时间(可能更改)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停界面、失败界面、游戏界面、设置界面、loading界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定8.3出包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.20出包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -98,9 +102,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -180,11 +181,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -466,26 +467,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="32.875" customWidth="1"/>
+    <col min="1" max="1" width="53.25" customWidth="1"/>
     <col min="2" max="2" width="20.375" customWidth="1"/>
     <col min="3" max="3" width="10.125" customWidth="1"/>
     <col min="4" max="4" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -497,7 +498,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
@@ -525,10 +526,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -539,7 +540,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>6.12</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -550,7 +551,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>6.14</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -561,7 +562,7 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>6.16</v>
+        <v>6.19</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -572,7 +573,7 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>6.21</v>
+        <v>6.22</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -583,7 +584,7 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>6.28</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -594,7 +595,7 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -604,8 +605,8 @@
       <c r="B11">
         <v>3</v>
       </c>
-      <c r="C11" s="7">
-        <v>7.1</v>
+      <c r="C11" s="8">
+        <v>7.11</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -613,21 +614,38 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>7.12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>7.19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>13</v>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Hopscotch/跳房子排期.xlsx
+++ b/Hopscotch/跳房子排期.xlsx
@@ -181,11 +181,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,7 +470,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -482,11 +482,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -509,7 +509,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -567,21 +567,21 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>6.22</v>
+        <v>6.26</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>6.29</v>
@@ -605,7 +605,7 @@
       <c r="B11">
         <v>3</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>7.11</v>
       </c>
     </row>

--- a/Hopscotch/跳房子排期.xlsx
+++ b/Hopscotch/跳房子排期.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>跳房子游戏排期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>框架搭建、用户数据初始化、配置表设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,39 +58,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商店系统：商店购买、商店界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色系统：角色购买，角色界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏场景系统，场景配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>与AI对战模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>暂定时间(可能更改)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新手</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>暂停界面、失败界面、游戏界面、设置界面、loading界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待定8.3出包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.20出包</t>
+    <t>暂停界面、结算界面、设置界面、loading界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏场景系统，场景配置、主场景界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店系统：商店购买逻辑、商店界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.14打包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定7.31打包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -102,7 +98,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,8 +117,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,6 +151,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -159,7 +172,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -184,8 +197,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,26 +489,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="53.25" customWidth="1"/>
+    <col min="1" max="1" width="43.125" customWidth="1"/>
     <col min="2" max="2" width="20.375" customWidth="1"/>
     <col min="3" max="3" width="10.125" customWidth="1"/>
     <col min="4" max="4" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -501,7 +523,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
@@ -511,10 +533,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
         <v>3</v>
-      </c>
-      <c r="B3" s="3">
-        <v>5</v>
       </c>
       <c r="C3" s="3">
         <v>6.6</v>
@@ -523,7 +545,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -534,7 +556,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -545,24 +567,24 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>6.15</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7">
-        <v>6.19</v>
+      <c r="C7" s="8">
+        <v>6.2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -573,78 +595,67 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>6.26</v>
+        <v>6.27</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>6.29</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>7.6</v>
+        <v>3</v>
+      </c>
+      <c r="C10" s="7">
+        <v>7.7</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="C11">
         <v>7.11</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="8">
+        <v>7.13</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>7.17</v>
-      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>7.19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
+      <c r="A13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="11">
         <v>10</v>
       </c>
-      <c r="C14">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C13" s="11">
+        <v>7.28</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>16</v>
       </c>
     </row>
